--- a/public/templates/farmer-bulk-upload-template.xlsx
+++ b/public/templates/farmer-bulk-upload-template.xlsx
@@ -400,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A39"/>
+  <dimension ref="A1:A38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -512,104 +512,99 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>• organizationName*: Organization/cooperative name</v>
+        <v>• idType*: ghana_card, voters_id, passport, or drivers_license</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>• idType*: ghana_card, voters_id, passport, or drivers_license</v>
+        <v>• idNumber*: ID number (minimum 5 characters)</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>• idNumber*: ID number (minimum 5 characters)</v>
+        <v>• householdSize: Positive number (optional)</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>• householdSize: Positive number (optional)</v>
+        <v>• isLeader: Yes or No</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>• isLeader: Yes or No</v>
+        <v>• isPhoneSmart: Yes or No</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>• isPhoneSmart: Yes or No</v>
+        <v>• legacyFarmerId: Previous system ID (optional)</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>• legacyFarmerId: Previous system ID (optional)</v>
+        <v/>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v/>
+        <v>FARM FIELDS:</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>FARM FIELDS:</v>
+        <v>• farmName*: Text (required)</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>• farmName*: Text (required)</v>
+        <v>• acreage: Positive number (optional)</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>• acreage: Positive number (optional)</v>
+        <v>• cropType: Text (optional)</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>• cropType: Text (optional)</v>
+        <v>• soilType: sandy, clay, loamy, silt, or rocky</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>• soilType: sandy, clay, loamy, silt, or rocky</v>
+        <v>• locationLat: Latitude coordinate (optional)</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>• locationLat: Latitude coordinate (optional)</v>
+        <v>• locationLng: Longitude coordinate (optional)</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>• locationLng: Longitude coordinate (optional)</v>
+        <v/>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v/>
+        <v>Note: Each row in Farms sheet should correspond to a farmer row in Farmers sheet.</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Note: Each row in Farms sheet should correspond to a farmer row in Farmers sheet.</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="str">
         <v>If a farmer has multiple farms, repeat the farmer row number.</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A39"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:A38"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -623,13 +618,12 @@
     <col min="7" max="7" width="12.83203125" customWidth="1"/>
     <col min="8" max="8" width="25.83203125" customWidth="1"/>
     <col min="9" max="9" width="30.83203125" customWidth="1"/>
-    <col min="10" max="10" width="30.83203125" customWidth="1"/>
-    <col min="11" max="11" width="12.83203125" customWidth="1"/>
-    <col min="12" max="12" width="18.83203125" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" customWidth="1"/>
+    <col min="11" max="11" width="18.83203125" customWidth="1"/>
+    <col min="12" max="12" width="12.83203125" customWidth="1"/>
     <col min="13" max="13" width="12.83203125" customWidth="1"/>
     <col min="14" max="14" width="12.83203125" customWidth="1"/>
     <col min="15" max="15" width="12.83203125" customWidth="1"/>
-    <col min="16" max="16" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -661,24 +655,21 @@
         <v>districtName*</v>
       </c>
       <c r="J1" t="str">
-        <v>organizationName*</v>
+        <v>idType*</v>
       </c>
       <c r="K1" t="str">
-        <v>idType*</v>
+        <v>idNumber*</v>
       </c>
       <c r="L1" t="str">
-        <v>idNumber*</v>
+        <v>householdSize</v>
       </c>
       <c r="M1" t="str">
-        <v>householdSize</v>
+        <v>isLeader</v>
       </c>
       <c r="N1" t="str">
-        <v>isLeader</v>
+        <v>isPhoneSmart</v>
       </c>
       <c r="O1" t="str">
-        <v>isPhoneSmart</v>
-      </c>
-      <c r="P1" t="str">
         <v>legacyFarmerId</v>
       </c>
     </row>
@@ -711,24 +702,21 @@
         <v>Birim Central Municipal</v>
       </c>
       <c r="J2" t="str">
-        <v>Akim Oda Farmers Association</v>
+        <v>ghana_card</v>
       </c>
       <c r="K2" t="str">
-        <v>ghana_card</v>
-      </c>
-      <c r="L2" t="str">
         <v>GHA-123456789-0</v>
       </c>
-      <c r="M2">
+      <c r="L2">
         <v>5</v>
+      </c>
+      <c r="M2" t="str">
+        <v>Yes</v>
       </c>
       <c r="N2" t="str">
         <v>Yes</v>
       </c>
       <c r="O2" t="str">
-        <v>Yes</v>
-      </c>
-      <c r="P2" t="str">
         <v>LEGACY001</v>
       </c>
     </row>
@@ -761,24 +749,21 @@
         <v>West Akim Municipal</v>
       </c>
       <c r="J3" t="str">
-        <v>Bunso Cooperative Society</v>
+        <v>voters_id</v>
       </c>
       <c r="K3" t="str">
-        <v>voters_id</v>
-      </c>
-      <c r="L3" t="str">
         <v>VID-987654321</v>
       </c>
-      <c r="M3">
+      <c r="L3">
         <v>8</v>
+      </c>
+      <c r="M3" t="str">
+        <v>No</v>
       </c>
       <c r="N3" t="str">
         <v>No</v>
       </c>
       <c r="O3" t="str">
-        <v>No</v>
-      </c>
-      <c r="P3" t="str">
         <v>LEGACY002</v>
       </c>
     </row>
@@ -811,30 +796,27 @@
         <v>East Akim Municipal</v>
       </c>
       <c r="J4" t="str">
-        <v>Kyebi Farmers Union</v>
+        <v>passport</v>
       </c>
       <c r="K4" t="str">
-        <v>passport</v>
-      </c>
-      <c r="L4" t="str">
         <v>P0012345</v>
       </c>
-      <c r="M4">
+      <c r="L4">
         <v>3</v>
+      </c>
+      <c r="M4" t="str">
+        <v>Yes</v>
       </c>
       <c r="N4" t="str">
         <v>Yes</v>
       </c>
       <c r="O4" t="str">
-        <v>Yes</v>
-      </c>
-      <c r="P4" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:O4"/>
   </ignoredErrors>
 </worksheet>
 </file>
